--- a/Code/Results/Cases/Case_5_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_176/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.28167104320844</v>
+        <v>13.14763442785007</v>
       </c>
       <c r="C2">
-        <v>8.764457549171686</v>
+        <v>5.67433876543938</v>
       </c>
       <c r="D2">
-        <v>4.930139837741162</v>
+        <v>6.99581215405264</v>
       </c>
       <c r="E2">
-        <v>13.01014782275964</v>
+        <v>10.89328524447625</v>
       </c>
       <c r="F2">
-        <v>33.6104119404629</v>
+        <v>36.54564082404067</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.40797801428187</v>
+        <v>12.54395826449712</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.44323190441622</v>
+        <v>15.45836519353906</v>
       </c>
       <c r="N2">
-        <v>15.77304476951802</v>
+        <v>22.05602951071927</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19247578715521</v>
+        <v>12.90300152081766</v>
       </c>
       <c r="C3">
-        <v>8.146986822490026</v>
+        <v>5.468126719357647</v>
       </c>
       <c r="D3">
-        <v>4.997747725282762</v>
+        <v>7.004714139653095</v>
       </c>
       <c r="E3">
-        <v>12.14216684607544</v>
+        <v>10.68004866482388</v>
       </c>
       <c r="F3">
-        <v>32.37997331283851</v>
+        <v>36.32024241319999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.46625075235854</v>
+        <v>12.38199045569924</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.36500822533895</v>
+        <v>15.30570589124348</v>
       </c>
       <c r="N3">
-        <v>15.82924156206458</v>
+        <v>22.0791869710074</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.5534902134689</v>
+        <v>12.75462639527463</v>
       </c>
       <c r="C4">
-        <v>7.748559050540203</v>
+        <v>5.339488557428746</v>
       </c>
       <c r="D4">
-        <v>5.039161060689147</v>
+        <v>7.010280847802457</v>
       </c>
       <c r="E4">
-        <v>11.62375766517466</v>
+        <v>10.55058114629476</v>
       </c>
       <c r="F4">
-        <v>31.62912422927673</v>
+        <v>36.18938287075332</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.85788507541956</v>
+        <v>12.28525165783887</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.6696905782702</v>
+        <v>15.21569009320452</v>
       </c>
       <c r="N4">
-        <v>15.86937866597472</v>
+        <v>22.09520667110874</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.29708682794392</v>
+        <v>12.69471338035317</v>
       </c>
       <c r="C5">
-        <v>7.581271160510983</v>
+        <v>5.286654779910189</v>
       </c>
       <c r="D5">
-        <v>5.056034158325497</v>
+        <v>7.012574888963263</v>
       </c>
       <c r="E5">
-        <v>11.40874170489817</v>
+        <v>10.4982665280688</v>
       </c>
       <c r="F5">
-        <v>31.32459329238038</v>
+        <v>36.13798917063346</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.6022900408336</v>
+        <v>12.24656038395238</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.43568607129473</v>
+        <v>15.1799809145309</v>
       </c>
       <c r="N5">
-        <v>15.88708896065266</v>
+        <v>22.10218718289541</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.25418018133732</v>
+        <v>12.68480080359088</v>
       </c>
       <c r="C6">
-        <v>7.553193609758885</v>
+        <v>5.277859812751478</v>
       </c>
       <c r="D6">
-        <v>5.058836330917936</v>
+        <v>7.012957362538873</v>
       </c>
       <c r="E6">
-        <v>11.37281557812013</v>
+        <v>10.48960882402869</v>
       </c>
       <c r="F6">
-        <v>31.27412225712077</v>
+        <v>36.12957304756893</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.55938188023265</v>
+        <v>12.24018125590423</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.39933262589505</v>
+        <v>15.17411127187028</v>
       </c>
       <c r="N6">
-        <v>15.89010979612687</v>
+        <v>22.10337359759253</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.55005457552752</v>
+        <v>12.75381603632778</v>
       </c>
       <c r="C7">
-        <v>7.746322983267875</v>
+        <v>5.338777560639899</v>
       </c>
       <c r="D7">
-        <v>5.039388602733029</v>
+        <v>7.010311682299976</v>
       </c>
       <c r="E7">
-        <v>11.620872926411</v>
+        <v>10.54987371151465</v>
       </c>
       <c r="F7">
-        <v>31.62501097170396</v>
+        <v>36.18868188506234</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.8544692630064</v>
+        <v>12.28472683205454</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.6657892706333</v>
+        <v>15.21520451832633</v>
       </c>
       <c r="N7">
-        <v>15.86961210925769</v>
+        <v>22.09529898191576</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.91317737289464</v>
+        <v>13.06295948568621</v>
       </c>
       <c r="C8">
-        <v>8.555513903129921</v>
+        <v>5.603711838228573</v>
       </c>
       <c r="D8">
-        <v>4.953484883841437</v>
+        <v>6.998860750247013</v>
       </c>
       <c r="E8">
-        <v>12.68860085594729</v>
+        <v>10.81950435178484</v>
       </c>
       <c r="F8">
-        <v>33.18534834935186</v>
+        <v>36.46638290454345</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.08946332006508</v>
+        <v>12.48757919285919</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.07829218097882</v>
+        <v>15.404980202063</v>
       </c>
       <c r="N8">
-        <v>15.79121364663202</v>
+        <v>22.06364012056168</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.44546359891746</v>
+        <v>13.6797506061947</v>
       </c>
       <c r="C9">
-        <v>9.992728485128353</v>
+        <v>6.103395136797225</v>
       </c>
       <c r="D9">
-        <v>4.783185094187785</v>
+        <v>6.977195878263916</v>
       </c>
       <c r="E9">
-        <v>14.90779022273558</v>
+        <v>11.35647424617686</v>
       </c>
       <c r="F9">
-        <v>36.27192833675397</v>
+        <v>37.06894966650871</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.27701324534582</v>
+        <v>12.90465294158327</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.59010593175326</v>
+        <v>15.80485458249608</v>
       </c>
       <c r="N9">
-        <v>15.68521394190315</v>
+        <v>22.01586984991548</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.15026421336328</v>
+        <v>14.13414272667914</v>
       </c>
       <c r="C10">
-        <v>10.96274199575345</v>
+        <v>6.453910265604182</v>
       </c>
       <c r="D10">
-        <v>4.655304964830773</v>
+        <v>6.961745832631292</v>
       </c>
       <c r="E10">
-        <v>16.41564251663115</v>
+        <v>11.75159115121181</v>
       </c>
       <c r="F10">
-        <v>38.54613423050635</v>
+        <v>37.54440972837771</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.74869046125183</v>
+        <v>13.21979691446713</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.28731057100989</v>
+        <v>16.11305724218503</v>
       </c>
       <c r="N10">
-        <v>15.64110077226821</v>
+        <v>21.98953096584894</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.89388911789022</v>
+        <v>14.34007259902635</v>
       </c>
       <c r="C11">
-        <v>11.38666998692747</v>
+        <v>6.608974829726868</v>
       </c>
       <c r="D11">
-        <v>4.596117756577992</v>
+        <v>6.954815415646053</v>
       </c>
       <c r="E11">
-        <v>17.07727445792503</v>
+        <v>11.93058177620859</v>
       </c>
       <c r="F11">
-        <v>39.58123483746348</v>
+        <v>37.76721417899348</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.39053886284046</v>
+        <v>13.36440868978314</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.02948289109557</v>
+        <v>16.25584421256922</v>
       </c>
       <c r="N11">
-        <v>15.62953064066966</v>
+        <v>21.97945724463403</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.171067364303</v>
+        <v>14.41785822520785</v>
       </c>
       <c r="C12">
-        <v>11.54482696379737</v>
+        <v>6.667007435208581</v>
       </c>
       <c r="D12">
-        <v>4.573520671445809</v>
+        <v>6.952204887519605</v>
       </c>
       <c r="E12">
-        <v>17.32453718854142</v>
+        <v>11.9981829517462</v>
       </c>
       <c r="F12">
-        <v>39.97328772395099</v>
+        <v>37.85246691022427</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.62977903427452</v>
+        <v>13.4192956737165</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.30643387152286</v>
+        <v>16.31023829092706</v>
       </c>
       <c r="N12">
-        <v>15.62648085394125</v>
+        <v>21.97591746928709</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.11156557628192</v>
+        <v>14.40111569064711</v>
       </c>
       <c r="C13">
-        <v>11.51086867171373</v>
+        <v>6.654540450158104</v>
       </c>
       <c r="D13">
-        <v>4.578396206517092</v>
+        <v>6.952766497845801</v>
       </c>
       <c r="E13">
-        <v>17.27142712735013</v>
+        <v>11.983632865834</v>
       </c>
       <c r="F13">
-        <v>39.88884763341633</v>
+        <v>37.83406790290271</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.57842131720574</v>
+        <v>13.40747004538657</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.24696608367291</v>
+        <v>16.29850991687966</v>
       </c>
       <c r="N13">
-        <v>15.62707658662553</v>
+        <v>21.97666758715931</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.91678020754277</v>
+        <v>14.34647645529744</v>
       </c>
       <c r="C14">
-        <v>11.3997285458488</v>
+        <v>6.61376327244238</v>
       </c>
       <c r="D14">
-        <v>4.594262607047284</v>
+        <v>6.954600369124492</v>
       </c>
       <c r="E14">
-        <v>17.09768141248357</v>
+        <v>11.93614733975233</v>
       </c>
       <c r="F14">
-        <v>39.61348733620598</v>
+        <v>37.77421062872057</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.41029676905389</v>
+        <v>13.36892206433737</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.05234860325584</v>
+        <v>16.26031303211667</v>
       </c>
       <c r="N14">
-        <v>15.62925237647214</v>
+        <v>21.97916051215162</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.79689877584463</v>
+        <v>14.31298045481057</v>
       </c>
       <c r="C15">
-        <v>11.33134636229609</v>
+        <v>6.58869505951459</v>
       </c>
       <c r="D15">
-        <v>4.603956038609114</v>
+        <v>6.955725468449484</v>
       </c>
       <c r="E15">
-        <v>16.99083627976658</v>
+        <v>11.90703577216951</v>
       </c>
       <c r="F15">
-        <v>39.44483327727548</v>
+        <v>37.73765944736945</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.30682391315589</v>
+        <v>13.34532508085126</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.93261313295061</v>
+        <v>16.23695707720405</v>
       </c>
       <c r="N15">
-        <v>15.63076197351942</v>
+        <v>21.98072332026368</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.10103887814104</v>
+        <v>14.12066184636207</v>
       </c>
       <c r="C16">
-        <v>10.93469823993852</v>
+        <v>6.443683198650641</v>
       </c>
       <c r="D16">
-        <v>4.659149400931294</v>
+        <v>6.962200703847016</v>
       </c>
       <c r="E16">
-        <v>16.37193189460376</v>
+        <v>11.73987246422137</v>
       </c>
       <c r="F16">
-        <v>38.47849778757964</v>
+        <v>37.52997534500951</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.70620148803778</v>
+        <v>13.21036671152926</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.23822337180507</v>
+        <v>16.1037736911657</v>
       </c>
       <c r="N16">
-        <v>15.64203700988631</v>
+        <v>21.99022774876607</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.66609732723575</v>
+        <v>14.00242095687737</v>
       </c>
       <c r="C17">
-        <v>10.68700728548529</v>
+        <v>6.353557385950028</v>
       </c>
       <c r="D17">
-        <v>4.692723056616604</v>
+        <v>6.966197976021695</v>
       </c>
       <c r="E17">
-        <v>15.9861738516975</v>
+        <v>11.63707957538851</v>
       </c>
       <c r="F17">
-        <v>37.88580434968203</v>
+        <v>37.40419777405374</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.33077186556696</v>
+        <v>13.12785569017456</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.8047204967936</v>
+        <v>16.02269787524382</v>
       </c>
       <c r="N17">
-        <v>15.65120471674023</v>
+        <v>21.99654748895103</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.41291687826668</v>
+        <v>13.93434372916203</v>
       </c>
       <c r="C18">
-        <v>10.542902560287</v>
+        <v>6.301309415409388</v>
       </c>
       <c r="D18">
-        <v>4.711940837094061</v>
+        <v>6.968506327115033</v>
       </c>
       <c r="E18">
-        <v>15.7619950862277</v>
+        <v>11.57788925174076</v>
       </c>
       <c r="F18">
-        <v>37.5449504358907</v>
+        <v>37.33247052824365</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.11222416646382</v>
+        <v>13.08051850428395</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.55255382082666</v>
+        <v>15.97631131828413</v>
       </c>
       <c r="N18">
-        <v>15.65727032179085</v>
+        <v>22.0003619911175</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.3266718424942</v>
+        <v>13.91128486317234</v>
       </c>
       <c r="C19">
-        <v>10.49382620890229</v>
+        <v>6.283550562876834</v>
       </c>
       <c r="D19">
-        <v>4.718432793619236</v>
+        <v>6.969289485923774</v>
       </c>
       <c r="E19">
-        <v>15.68569076286616</v>
+        <v>11.55783920730951</v>
       </c>
       <c r="F19">
-        <v>37.42955237824346</v>
+        <v>37.3082924893812</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.0377747221936</v>
+        <v>13.06451339186437</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.46668301487579</v>
+        <v>15.9606493501595</v>
       </c>
       <c r="N19">
-        <v>15.65945699972271</v>
+        <v>22.00168433729714</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.71270831382168</v>
+        <v>14.01501558105701</v>
       </c>
       <c r="C20">
-        <v>10.71354327211949</v>
+        <v>6.363194293991879</v>
       </c>
       <c r="D20">
-        <v>4.689158962891651</v>
+        <v>6.96577150625796</v>
       </c>
       <c r="E20">
-        <v>16.0274751378297</v>
+        <v>11.64802946828524</v>
       </c>
       <c r="F20">
-        <v>37.94889284180119</v>
+        <v>37.41752358228686</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.37100606656994</v>
+        <v>13.13662700537894</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.8511588120294</v>
+        <v>16.03130340894724</v>
       </c>
       <c r="N20">
-        <v>15.65014601109009</v>
+        <v>21.9958561545944</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.9741118008021</v>
+        <v>14.36253127990602</v>
       </c>
       <c r="C21">
-        <v>11.43243656441648</v>
+        <v>6.625759575905247</v>
       </c>
       <c r="D21">
-        <v>4.589607586246109</v>
+        <v>6.954061341878909</v>
       </c>
       <c r="E21">
-        <v>17.14880203779487</v>
+        <v>11.95010038609675</v>
       </c>
       <c r="F21">
-        <v>39.69436470838025</v>
+        <v>37.79176868658884</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.45978119244461</v>
+        <v>13.38024155859621</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.10962182962843</v>
+        <v>16.27152397840816</v>
       </c>
       <c r="N21">
-        <v>15.62857622381824</v>
+        <v>21.97842081390433</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.77286273917515</v>
+        <v>14.58847703930443</v>
       </c>
       <c r="C22">
-        <v>11.88849312651408</v>
+        <v>6.793335638958384</v>
       </c>
       <c r="D22">
-        <v>4.523450489259666</v>
+        <v>6.946488823734175</v>
       </c>
       <c r="E22">
-        <v>17.8626343767158</v>
+        <v>12.14644939430518</v>
       </c>
       <c r="F22">
-        <v>40.835666667193</v>
+        <v>38.04147085826349</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.14921346899293</v>
+        <v>13.54016567869133</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.90835119521538</v>
+        <v>16.43038686494758</v>
       </c>
       <c r="N22">
-        <v>15.62230008014065</v>
+        <v>21.96862852710805</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.3488399862943</v>
+        <v>14.46801982303411</v>
       </c>
       <c r="C23">
-        <v>11.6463061035567</v>
+        <v>6.704282274616155</v>
       </c>
       <c r="D23">
-        <v>4.558873755253447</v>
+        <v>6.95052309855204</v>
       </c>
       <c r="E23">
-        <v>17.48331278723562</v>
+        <v>12.04177476212757</v>
       </c>
       <c r="F23">
-        <v>40.22646370098452</v>
+        <v>37.90775113728061</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.78322027994898</v>
+        <v>13.45476405442337</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.48415369621222</v>
+        <v>16.34544393936205</v>
       </c>
       <c r="N23">
-        <v>15.62489480969089</v>
+        <v>21.97370802562486</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.69164523858929</v>
+        <v>14.00932185327426</v>
       </c>
       <c r="C24">
-        <v>10.70155166854548</v>
+        <v>6.358838793610612</v>
       </c>
       <c r="D24">
-        <v>4.690770548966092</v>
+        <v>6.965964281225674</v>
       </c>
       <c r="E24">
-        <v>16.00881032160575</v>
+        <v>11.64307930699885</v>
       </c>
       <c r="F24">
-        <v>37.92037086574705</v>
+        <v>37.41149716117737</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.35282463154747</v>
+        <v>13.13266117970096</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.8301732226905</v>
+        <v>16.02741214265777</v>
       </c>
       <c r="N24">
-        <v>15.65062218392224</v>
+        <v>21.99616814243786</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.78833295948308</v>
+        <v>13.51230730683013</v>
       </c>
       <c r="C25">
-        <v>9.619419339778489</v>
+        <v>5.970839404178731</v>
       </c>
       <c r="D25">
-        <v>4.829612302186764</v>
+        <v>6.982973701827111</v>
       </c>
       <c r="E25">
-        <v>14.32968250199644</v>
+        <v>11.21079204753005</v>
       </c>
       <c r="F25">
-        <v>35.43527375545337</v>
+        <v>36.89998846239448</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.70958192910137</v>
+        <v>12.79007103736914</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.93733204326463</v>
+        <v>15.6939614876504</v>
       </c>
       <c r="N25">
-        <v>15.70832482625605</v>
+        <v>22.02725728114231</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_176/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.14763442785007</v>
+        <v>15.28167104320845</v>
       </c>
       <c r="C2">
-        <v>5.67433876543938</v>
+        <v>8.764457549171681</v>
       </c>
       <c r="D2">
-        <v>6.99581215405264</v>
+        <v>4.930139837741096</v>
       </c>
       <c r="E2">
-        <v>10.89328524447625</v>
+        <v>13.01014782275959</v>
       </c>
       <c r="F2">
-        <v>36.54564082404067</v>
+        <v>33.61041194046285</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.54395826449712</v>
+        <v>13.40797801428191</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.45836519353906</v>
+        <v>15.44323190441624</v>
       </c>
       <c r="N2">
-        <v>22.05602951071927</v>
+        <v>15.773044769518</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.90300152081766</v>
+        <v>14.19247578715529</v>
       </c>
       <c r="C3">
-        <v>5.468126719357647</v>
+        <v>8.14698682249008</v>
       </c>
       <c r="D3">
-        <v>7.004714139653095</v>
+        <v>4.997747725282638</v>
       </c>
       <c r="E3">
-        <v>10.68004866482388</v>
+        <v>12.14216684607547</v>
       </c>
       <c r="F3">
-        <v>36.32024241319999</v>
+        <v>32.37997331283839</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.38199045569924</v>
+        <v>12.46625075235862</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.30570589124348</v>
+        <v>14.36500822533903</v>
       </c>
       <c r="N3">
-        <v>22.0791869710074</v>
+        <v>15.82924156206447</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.75462639527463</v>
+        <v>13.55349021346893</v>
       </c>
       <c r="C4">
-        <v>5.339488557428746</v>
+        <v>7.748559050540218</v>
       </c>
       <c r="D4">
-        <v>7.010280847802457</v>
+        <v>5.039161060689277</v>
       </c>
       <c r="E4">
-        <v>10.55058114629476</v>
+        <v>11.62375766517463</v>
       </c>
       <c r="F4">
-        <v>36.18938287075332</v>
+        <v>31.62912422927712</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.28525165783887</v>
+        <v>11.85788507541944</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.21569009320452</v>
+        <v>13.66969057827009</v>
       </c>
       <c r="N4">
-        <v>22.09520667110874</v>
+        <v>15.86937866597495</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.69471338035317</v>
+        <v>13.29708682794393</v>
       </c>
       <c r="C5">
-        <v>5.286654779910189</v>
+        <v>7.581271160510974</v>
       </c>
       <c r="D5">
-        <v>7.012574888963263</v>
+        <v>5.056034158325494</v>
       </c>
       <c r="E5">
-        <v>10.4982665280688</v>
+        <v>11.40874170489817</v>
       </c>
       <c r="F5">
-        <v>36.13798917063346</v>
+        <v>31.32459329238041</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.24656038395238</v>
+        <v>11.60229004083364</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.1799809145309</v>
+        <v>13.43568607129474</v>
       </c>
       <c r="N5">
-        <v>22.10218718289541</v>
+        <v>15.88708896065269</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68480080359088</v>
+        <v>13.25418018133733</v>
       </c>
       <c r="C6">
-        <v>5.277859812751478</v>
+        <v>7.553193609759093</v>
       </c>
       <c r="D6">
-        <v>7.012957362538873</v>
+        <v>5.058836330917866</v>
       </c>
       <c r="E6">
-        <v>10.48960882402869</v>
+        <v>11.37281557812016</v>
       </c>
       <c r="F6">
-        <v>36.12957304756893</v>
+        <v>31.27412225712064</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.24018125590423</v>
+        <v>11.55938188023267</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.17411127187028</v>
+        <v>13.39933262589506</v>
       </c>
       <c r="N6">
-        <v>22.10337359759253</v>
+        <v>15.89010979612675</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.75381603632778</v>
+        <v>13.5500545755275</v>
       </c>
       <c r="C7">
-        <v>5.338777560639899</v>
+        <v>7.746322983267808</v>
       </c>
       <c r="D7">
-        <v>7.010311682299976</v>
+        <v>5.039388602733091</v>
       </c>
       <c r="E7">
-        <v>10.54987371151465</v>
+        <v>11.62087292641103</v>
       </c>
       <c r="F7">
-        <v>36.18868188506234</v>
+        <v>31.62501097170379</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.28472683205454</v>
+        <v>11.85446926300646</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.21520451832633</v>
+        <v>13.66578927063333</v>
       </c>
       <c r="N7">
-        <v>22.09529898191576</v>
+        <v>15.86961210925766</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.06295948568621</v>
+        <v>14.91317737289464</v>
       </c>
       <c r="C8">
-        <v>5.603711838228573</v>
+        <v>8.555513903129928</v>
       </c>
       <c r="D8">
-        <v>6.998860750247013</v>
+        <v>4.953484883841571</v>
       </c>
       <c r="E8">
-        <v>10.81950435178484</v>
+        <v>12.68860085594737</v>
       </c>
       <c r="F8">
-        <v>36.46638290454345</v>
+        <v>33.18534834935193</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.48757919285919</v>
+        <v>13.08946332006504</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.404980202063</v>
+        <v>15.07829218097884</v>
       </c>
       <c r="N8">
-        <v>22.06364012056168</v>
+        <v>15.79121364663206</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.6797506061947</v>
+        <v>17.44546359891738</v>
       </c>
       <c r="C9">
-        <v>6.103395136797225</v>
+        <v>9.992728485128435</v>
       </c>
       <c r="D9">
-        <v>6.977195878263916</v>
+        <v>4.783185094187919</v>
       </c>
       <c r="E9">
-        <v>11.35647424617686</v>
+        <v>14.90779022273556</v>
       </c>
       <c r="F9">
-        <v>37.06894966650871</v>
+        <v>36.27192833675402</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.90465294158327</v>
+        <v>15.27701324534578</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.80485458249608</v>
+        <v>17.59010593175323</v>
       </c>
       <c r="N9">
-        <v>22.01586984991548</v>
+        <v>15.68521394190318</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.13414272667914</v>
+        <v>19.15026421336319</v>
       </c>
       <c r="C10">
-        <v>6.453910265604182</v>
+        <v>10.96274199575342</v>
       </c>
       <c r="D10">
-        <v>6.961745832631292</v>
+        <v>4.655304964830899</v>
       </c>
       <c r="E10">
-        <v>11.75159115121181</v>
+        <v>16.41564251663106</v>
       </c>
       <c r="F10">
-        <v>37.54440972837771</v>
+        <v>38.54613423050641</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.21979691446713</v>
+        <v>16.74869046125177</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.11305724218503</v>
+        <v>19.2873105710098</v>
       </c>
       <c r="N10">
-        <v>21.98953096584894</v>
+        <v>15.64110077226835</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.34007259902635</v>
+        <v>19.8938891178902</v>
       </c>
       <c r="C11">
-        <v>6.608974829726868</v>
+        <v>11.3866699869274</v>
       </c>
       <c r="D11">
-        <v>6.954815415646053</v>
+        <v>4.596117756578179</v>
       </c>
       <c r="E11">
-        <v>11.93058177620859</v>
+        <v>17.07727445792504</v>
       </c>
       <c r="F11">
-        <v>37.76721417899348</v>
+        <v>39.58123483746351</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.36440868978314</v>
+        <v>17.39053886284045</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.25584421256922</v>
+        <v>20.02948289109557</v>
       </c>
       <c r="N11">
-        <v>21.97945724463403</v>
+        <v>15.62953064066969</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.41785822520785</v>
+        <v>20.17106736430302</v>
       </c>
       <c r="C12">
-        <v>6.667007435208581</v>
+        <v>11.54482696379754</v>
       </c>
       <c r="D12">
-        <v>6.952204887519605</v>
+        <v>4.573520671446133</v>
       </c>
       <c r="E12">
-        <v>11.9981829517462</v>
+        <v>17.32453718854148</v>
       </c>
       <c r="F12">
-        <v>37.85246691022427</v>
+        <v>39.97328772395098</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.4192956737165</v>
+        <v>17.62977903427457</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.31023829092706</v>
+        <v>20.30643387152291</v>
       </c>
       <c r="N12">
-        <v>21.97591746928709</v>
+        <v>15.6264808539412</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.40111569064711</v>
+        <v>20.11156557628187</v>
       </c>
       <c r="C13">
-        <v>6.654540450158104</v>
+        <v>11.5108686717137</v>
       </c>
       <c r="D13">
-        <v>6.952766497845801</v>
+        <v>4.57839620651722</v>
       </c>
       <c r="E13">
-        <v>11.983632865834</v>
+        <v>17.27142712735017</v>
       </c>
       <c r="F13">
-        <v>37.83406790290271</v>
+        <v>39.88884763341631</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.40747004538657</v>
+        <v>17.57842131720569</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.29850991687966</v>
+        <v>20.2469660836729</v>
       </c>
       <c r="N13">
-        <v>21.97666758715931</v>
+        <v>15.62707658662551</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.34647645529744</v>
+        <v>19.91678020754299</v>
       </c>
       <c r="C14">
-        <v>6.61376327244238</v>
+        <v>11.39972854584872</v>
       </c>
       <c r="D14">
-        <v>6.954600369124492</v>
+        <v>4.594262607047225</v>
       </c>
       <c r="E14">
-        <v>11.93614733975233</v>
+        <v>17.09768141248365</v>
       </c>
       <c r="F14">
-        <v>37.77421062872057</v>
+        <v>39.61348733620593</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.36892206433737</v>
+        <v>17.41029676905403</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.26031303211667</v>
+        <v>20.052348603256</v>
       </c>
       <c r="N14">
-        <v>21.97916051215162</v>
+        <v>15.62925237647196</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.31298045481057</v>
+        <v>19.79689877584479</v>
       </c>
       <c r="C15">
-        <v>6.58869505951459</v>
+        <v>11.33134636229588</v>
       </c>
       <c r="D15">
-        <v>6.955725468449484</v>
+        <v>4.603956038608984</v>
       </c>
       <c r="E15">
-        <v>11.90703577216951</v>
+        <v>16.99083627976665</v>
       </c>
       <c r="F15">
-        <v>37.73765944736945</v>
+        <v>39.44483327727554</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.34532508085126</v>
+        <v>17.30682391315593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.23695707720405</v>
+        <v>19.93261313295069</v>
       </c>
       <c r="N15">
-        <v>21.98072332026368</v>
+        <v>15.63076197351937</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.12066184636207</v>
+        <v>19.10103887814111</v>
       </c>
       <c r="C16">
-        <v>6.443683198650641</v>
+        <v>10.93469823993848</v>
       </c>
       <c r="D16">
-        <v>6.962200703847016</v>
+        <v>4.659149400931283</v>
       </c>
       <c r="E16">
-        <v>11.73987246422137</v>
+        <v>16.37193189460372</v>
       </c>
       <c r="F16">
-        <v>37.52997534500951</v>
+        <v>38.47849778757958</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.21036671152926</v>
+        <v>16.70620148803784</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.1037736911657</v>
+        <v>19.23822337180508</v>
       </c>
       <c r="N16">
-        <v>21.99022774876607</v>
+        <v>15.64203700988625</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.00242095687737</v>
+        <v>18.66609732723556</v>
       </c>
       <c r="C17">
-        <v>6.353557385950028</v>
+        <v>10.68700728548541</v>
       </c>
       <c r="D17">
-        <v>6.966197976021695</v>
+        <v>4.692723056616413</v>
       </c>
       <c r="E17">
-        <v>11.63707957538851</v>
+        <v>15.98617385169739</v>
       </c>
       <c r="F17">
-        <v>37.40419777405374</v>
+        <v>37.88580434968213</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.12785569017456</v>
+        <v>16.33077186556686</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.02269787524382</v>
+        <v>18.80472049679347</v>
       </c>
       <c r="N17">
-        <v>21.99654748895103</v>
+        <v>15.65120471674043</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.93434372916203</v>
+        <v>18.41291687826669</v>
       </c>
       <c r="C18">
-        <v>6.301309415409388</v>
+        <v>10.54290256028706</v>
       </c>
       <c r="D18">
-        <v>6.968506327115033</v>
+        <v>4.71194083709439</v>
       </c>
       <c r="E18">
-        <v>11.57788925174076</v>
+        <v>15.7619950862277</v>
       </c>
       <c r="F18">
-        <v>37.33247052824365</v>
+        <v>37.54495043589072</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.08051850428395</v>
+        <v>16.1122241664638</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.97631131828413</v>
+        <v>18.55255382082665</v>
       </c>
       <c r="N18">
-        <v>22.0003619911175</v>
+        <v>15.65727032179088</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.91128486317234</v>
+        <v>18.32667184249415</v>
       </c>
       <c r="C19">
-        <v>6.283550562876834</v>
+        <v>10.49382620890216</v>
       </c>
       <c r="D19">
-        <v>6.969289485923774</v>
+        <v>4.718432793619233</v>
       </c>
       <c r="E19">
-        <v>11.55783920730951</v>
+        <v>15.68569076286613</v>
       </c>
       <c r="F19">
-        <v>37.3082924893812</v>
+        <v>37.42955237824351</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.06451339186437</v>
+        <v>16.03777472219354</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.9606493501595</v>
+        <v>18.46668301487572</v>
       </c>
       <c r="N19">
-        <v>22.00168433729714</v>
+        <v>15.65945699972276</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.01501558105701</v>
+        <v>18.71270831382173</v>
       </c>
       <c r="C20">
-        <v>6.363194293991879</v>
+        <v>10.71354327211946</v>
       </c>
       <c r="D20">
-        <v>6.96577150625796</v>
+        <v>4.689158962891652</v>
       </c>
       <c r="E20">
-        <v>11.64802946828524</v>
+        <v>16.0274751378297</v>
       </c>
       <c r="F20">
-        <v>37.41752358228686</v>
+        <v>37.94889284180121</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.13662700537894</v>
+        <v>16.37100606656998</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.03130340894724</v>
+        <v>18.8511588120294</v>
       </c>
       <c r="N20">
-        <v>21.9958561545944</v>
+        <v>15.65014601109006</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.36253127990602</v>
+        <v>19.9741118008021</v>
       </c>
       <c r="C21">
-        <v>6.625759575905247</v>
+        <v>11.43243656441631</v>
       </c>
       <c r="D21">
-        <v>6.954061341878909</v>
+        <v>4.5896075862461</v>
       </c>
       <c r="E21">
-        <v>11.95010038609675</v>
+        <v>17.14880203779482</v>
       </c>
       <c r="F21">
-        <v>37.79176868658884</v>
+        <v>39.69436470838016</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.38024155859621</v>
+        <v>17.45978119244456</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.27152397840816</v>
+        <v>20.10962182962837</v>
       </c>
       <c r="N21">
-        <v>21.97842081390433</v>
+        <v>15.62857622381821</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.58847703930443</v>
+        <v>20.77286273917519</v>
       </c>
       <c r="C22">
-        <v>6.793335638958384</v>
+        <v>11.88849312651408</v>
       </c>
       <c r="D22">
-        <v>6.946488823734175</v>
+        <v>4.523450489259607</v>
       </c>
       <c r="E22">
-        <v>12.14644939430518</v>
+        <v>17.8626343767158</v>
       </c>
       <c r="F22">
-        <v>38.04147085826349</v>
+        <v>40.83566666719297</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.54016567869133</v>
+        <v>18.14921346899297</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.43038686494758</v>
+        <v>20.9083511952154</v>
       </c>
       <c r="N22">
-        <v>21.96862852710805</v>
+        <v>15.62230008014063</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.46801982303411</v>
+        <v>20.34883998629438</v>
       </c>
       <c r="C23">
-        <v>6.704282274616155</v>
+        <v>11.64630610355687</v>
       </c>
       <c r="D23">
-        <v>6.95052309855204</v>
+        <v>4.558873755253452</v>
       </c>
       <c r="E23">
-        <v>12.04177476212757</v>
+        <v>17.48331278723566</v>
       </c>
       <c r="F23">
-        <v>37.90775113728061</v>
+        <v>40.2264637009845</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.45476405442337</v>
+        <v>17.78322027994907</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.34544393936205</v>
+        <v>20.48415369621232</v>
       </c>
       <c r="N23">
-        <v>21.97370802562486</v>
+        <v>15.62489480969075</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.00932185327426</v>
+        <v>18.69164523858923</v>
       </c>
       <c r="C24">
-        <v>6.358838793610612</v>
+        <v>10.7015516685454</v>
       </c>
       <c r="D24">
-        <v>6.965964281225674</v>
+        <v>4.690770548965966</v>
       </c>
       <c r="E24">
-        <v>11.64307930699885</v>
+        <v>16.00881032160577</v>
       </c>
       <c r="F24">
-        <v>37.41149716117737</v>
+        <v>37.92037086574717</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.13266117970096</v>
+        <v>16.35282463154741</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.02741214265777</v>
+        <v>18.83017322269047</v>
       </c>
       <c r="N24">
-        <v>21.99616814243786</v>
+        <v>15.6506221839223</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.51230730683013</v>
+        <v>16.78833295948303</v>
       </c>
       <c r="C25">
-        <v>5.970839404178731</v>
+        <v>9.61941933977838</v>
       </c>
       <c r="D25">
-        <v>6.982973701827111</v>
+        <v>4.829612302186762</v>
       </c>
       <c r="E25">
-        <v>11.21079204753005</v>
+        <v>14.32968250199651</v>
       </c>
       <c r="F25">
-        <v>36.89998846239448</v>
+        <v>35.43527375545332</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.79007103736914</v>
+        <v>14.70958192910132</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.6939614876504</v>
+        <v>16.93733204326461</v>
       </c>
       <c r="N25">
-        <v>22.02725728114231</v>
+        <v>15.70832482625603</v>
       </c>
       <c r="O25">
         <v>0</v>
